--- a/wikipedia_validation_sheets/Cerebrovascular disease DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Cerebrovascular disease DISNET VALIDATION.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F2654941-FAF8-B647-85F0-3AEFEFDCB8AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB233AD-FCC6-BD45-A316-56AAE873A5DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,6 +33,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Saioa Chanca González</author>
+    <author>tc={CCCC9A71-AF50-4A5B-955B-AC0C59E4B9F5}</author>
   </authors>
   <commentList>
     <comment ref="B30" authorId="0" shapeId="0" xr:uid="{A6723C5F-1F5A-4A4F-B02C-99BC0D4F56FF}">
@@ -44,12 +50,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="B62" authorId="1" shapeId="0" xr:uid="{CCCC9A71-AF50-4A5B-955B-AC0C59E4B9F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    LA EMBOLIA ES UNA DE LAS CAUSAS DE LAS ENFERMEDADES CARDIOVASCULARES, PERO NO A LA INVERSA.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="166">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -438,15 +461,9 @@
     <t>decreased consciousness</t>
   </si>
   <si>
-    <t>BRAIN HERNIATION</t>
-  </si>
-  <si>
     <t>Edema or swelling of the brain</t>
   </si>
   <si>
-    <t>cognitive decline</t>
-  </si>
-  <si>
     <t>FPREAL</t>
   </si>
   <si>
@@ -456,7 +473,103 @@
     <t>FLACCID WEAKNESS</t>
   </si>
   <si>
-    <t>MOOD DISTURBANCES</t>
+    <t>hemorrhage, bleeding</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>cognitive, decline</t>
+  </si>
+  <si>
+    <t>Impaired cognition</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>thrombosis</t>
+  </si>
+  <si>
+    <t>Thrombosis</t>
+  </si>
+  <si>
+    <t>vein, rupture</t>
+  </si>
+  <si>
+    <t>Rupture of vein</t>
+  </si>
+  <si>
+    <t>cognitions</t>
+  </si>
+  <si>
+    <t>Cognition</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>vessel, rupture</t>
+  </si>
+  <si>
+    <t>Hemorrhage of blood vessel</t>
+  </si>
+  <si>
+    <t>Embolism</t>
+  </si>
+  <si>
+    <t>infarcts</t>
+  </si>
+  <si>
+    <t>Infarction</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>Understanding, NOS</t>
+  </si>
+  <si>
+    <t>germinal, matrix, hemorrhage</t>
+  </si>
+  <si>
+    <t>Perinatal subependymal hemorrhage</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>brain, herniation</t>
+  </si>
+  <si>
+    <t>Cerebral herniation</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>mood, disturbances</t>
+  </si>
+  <si>
+    <t>Disturbance in mood</t>
+  </si>
+  <si>
+    <t>occlusion</t>
+  </si>
+  <si>
+    <t>Obstruction</t>
+  </si>
+  <si>
+    <t>Thrombosis of blood vessel</t>
+  </si>
+  <si>
+    <t>occlusion of intracranial blood vessels</t>
   </si>
 </sst>
 </file>
@@ -558,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -705,6 +818,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -805,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -816,14 +974,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,37 +996,46 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +1057,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Gerardo Lagunes García" id="{27FA18BD-1B42-4049-8FB5-091A487983D0}" userId="5c11820d19dde345" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,15 +1360,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B62" dT="2019-01-23T15:03:26.03" personId="{27FA18BD-1B42-4049-8FB5-091A487983D0}" id="{CCCC9A71-AF50-4A5B-955B-AC0C59E4B9F5}">
+    <text>LA EMBOLIA ES UNA DE LAS CAUSAS DE LAS ENFERMEDADES CARDIOVASCULARES, PERO NO A LA INVERSA.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175DA4B7-4FED-6E4B-9BC5-D4A32E68B6E0}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
@@ -1201,62 +1385,62 @@
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1276,13 +1460,13 @@
       <c r="E4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1305,13 +1489,13 @@
       <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1334,17 +1518,17 @@
       <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1363,17 +1547,17 @@
       <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1392,13 +1576,13 @@
       <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -1421,13 +1605,13 @@
       <c r="E9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -1450,13 +1634,13 @@
       <c r="E10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1479,13 +1663,13 @@
       <c r="E11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -1508,13 +1692,13 @@
       <c r="E12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="F12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -1537,17 +1721,17 @@
       <c r="E13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1566,17 +1750,17 @@
       <c r="E14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1595,17 +1779,17 @@
       <c r="E15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1624,13 +1808,13 @@
       <c r="E16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="F16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1653,13 +1837,13 @@
       <c r="E17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -1682,13 +1866,13 @@
       <c r="E18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -1711,13 +1895,13 @@
       <c r="E19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="16" t="s">
+      <c r="F19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -1740,13 +1924,13 @@
       <c r="E20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="16" t="s">
+      <c r="F20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -1769,13 +1953,13 @@
       <c r="E21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="16" t="s">
+      <c r="F21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -1798,17 +1982,17 @@
       <c r="E22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1827,17 +2011,17 @@
       <c r="E23" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="16" t="s">
+      <c r="F23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1856,13 +2040,13 @@
       <c r="E24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="16" t="s">
+      <c r="F24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -1885,17 +2069,17 @@
       <c r="E25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1914,13 +2098,13 @@
       <c r="E26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="16" t="s">
+      <c r="F26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="5" t="s">
@@ -1943,13 +2127,13 @@
       <c r="E27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="16" t="s">
+      <c r="F27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -1972,13 +2156,13 @@
       <c r="E28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="16" t="s">
+      <c r="F28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -2001,13 +2185,13 @@
       <c r="E29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="16" t="s">
+      <c r="F29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -2030,13 +2214,13 @@
       <c r="E30" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="16" t="s">
+      <c r="F30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="5" t="s">
@@ -2059,13 +2243,13 @@
       <c r="E31" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="16" t="s">
+      <c r="F31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -2088,13 +2272,13 @@
       <c r="E32" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="16" t="s">
+      <c r="F32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -2117,13 +2301,13 @@
       <c r="E33" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="16" t="s">
+      <c r="F33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="5" t="s">
@@ -2146,13 +2330,13 @@
       <c r="E34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="16" t="s">
+      <c r="F34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="5" t="s">
@@ -2175,13 +2359,13 @@
       <c r="E35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="16" t="s">
+      <c r="F35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="5" t="s">
@@ -2204,13 +2388,13 @@
       <c r="E36" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="16" t="s">
+      <c r="F36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="5" t="s">
@@ -2233,13 +2417,13 @@
       <c r="E37" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="16" t="s">
+      <c r="F37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="5" t="s">
@@ -2262,13 +2446,13 @@
       <c r="E38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="16" t="s">
+      <c r="F38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="5" t="s">
@@ -2291,13 +2475,13 @@
       <c r="E39" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="16" t="s">
+      <c r="F39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -2320,13 +2504,13 @@
       <c r="E40" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="16" t="s">
+      <c r="F40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -2349,13 +2533,13 @@
       <c r="E41" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="16" t="s">
+      <c r="F41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -2378,13 +2562,13 @@
       <c r="E42" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="16" t="s">
+      <c r="F42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -2407,13 +2591,13 @@
       <c r="E43" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="16" t="s">
+      <c r="F43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -2436,13 +2620,13 @@
       <c r="E44" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="16" t="s">
+      <c r="F44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -2465,13 +2649,13 @@
       <c r="E45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="16" t="s">
+      <c r="F45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -2494,13 +2678,13 @@
       <c r="E46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="16" t="s">
+      <c r="F46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="5" t="s">
@@ -2523,13 +2707,13 @@
       <c r="E47" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="16" t="s">
+      <c r="F47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -2552,13 +2736,13 @@
       <c r="E48" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="16" t="s">
+      <c r="F48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="5" t="s">
@@ -2581,13 +2765,13 @@
       <c r="E49" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="16" t="s">
+      <c r="F49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -2610,13 +2794,13 @@
       <c r="E50" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="16" t="s">
+      <c r="F50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -2639,13 +2823,13 @@
       <c r="E51" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="16" t="s">
+      <c r="F51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I51" s="5" t="s">
@@ -2668,13 +2852,13 @@
       <c r="E52" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="16" t="s">
+      <c r="F52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -2697,13 +2881,13 @@
       <c r="E53" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="16" t="s">
+      <c r="F53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I53" s="5" t="s">
@@ -2726,13 +2910,13 @@
       <c r="E54" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="16" t="s">
+      <c r="F54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="5" t="s">
@@ -2755,188 +2939,673 @@
       <c r="E55" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="16" t="s">
+      <c r="F55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="24" t="s">
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="24" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="24" t="s">
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="24" t="s">
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="24" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="24" t="s">
+    <row r="77" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>13</v>
-      </c>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
